--- a/Documentation/Evaluation/Kopie von PHP-SQL-Evaluation-Criteria.xlsx
+++ b/Documentation/Evaluation/Kopie von PHP-SQL-Evaluation-Criteria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\Studium\Auslandssemester\study stuff\PHP und SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Git2\InventoryManager\Documentation\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D2E674-ACB8-409B-B23F-6239C6314E4E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1494DF-B2CF-4B0A-805A-D1DC03FC2949}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17548" windowHeight="5809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,21 +36,6 @@
     <t>EVALUATION FORM (Web App Development with PHP/SQL)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Total evaluated points: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFAEAAAA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sum of points from the table below</t>
-    </r>
-  </si>
-  <si>
     <t>Evaluation targets</t>
   </si>
   <si>
@@ -409,12 +394,28 @@
   <si>
     <t>checkLogin.php. uploaduser.php</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total evaluated points: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +491,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -696,34 +705,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,50 +774,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1061,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1080,22 +1089,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1103,21 +1112,21 @@
     </row>
     <row r="7" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7">
         <f>SUM(B9:B12)</f>
@@ -1131,7 +1140,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
@@ -1141,7 +1150,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="13">
         <v>2</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
@@ -1171,7 +1180,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
         <f>SUM(B14:B18)</f>
@@ -1185,7 +1194,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
@@ -1195,7 +1204,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -1205,7 +1214,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
@@ -1215,7 +1224,7 @@
     </row>
     <row r="17" spans="1:4" ht="29.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="13">
         <v>2</v>
@@ -1225,19 +1234,19 @@
     </row>
     <row r="18" spans="1:4" ht="29.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="13">
         <v>5</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="45" t="s">
-        <v>58</v>
+      <c r="D18" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7">
         <f>SUM(B20:B24)</f>
@@ -1251,7 +1260,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="13">
         <v>4</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="13">
         <v>4</v>
@@ -1271,7 +1280,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="13">
         <v>4</v>
@@ -1281,7 +1290,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="13">
         <v>4</v>
@@ -1291,7 +1300,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -1301,7 +1310,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7">
         <f>SUM(B26:B43)</f>
@@ -1315,97 +1324,97 @@
     </row>
     <row r="26" spans="1:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="27">
+        <v>22</v>
+      </c>
+      <c r="B26" s="38">
         <v>4</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:4" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="13">
         <v>8</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="44" t="s">
-        <v>60</v>
+      <c r="D29" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="13">
         <v>4</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="44" t="s">
-        <v>59</v>
+      <c r="D30" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="27">
+        <v>27</v>
+      </c>
+      <c r="B31" s="38">
         <v>6</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="46" t="s">
-        <v>61</v>
+      <c r="C31" s="47"/>
+      <c r="D31" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" ht="44.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="13">
         <v>4</v>
       </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="44" t="s">
-        <v>62</v>
+      <c r="D34" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="44.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="13">
         <v>8</v>
@@ -1415,95 +1424,95 @@
     </row>
     <row r="36" spans="1:4" ht="29.3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="41">
+        <v>32</v>
+      </c>
+      <c r="B36" s="31">
         <v>16</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="47" t="s">
-        <v>63</v>
+      <c r="C36" s="34"/>
+      <c r="D36" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="47" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="47" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="13">
         <v>4</v>
       </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="44" t="s">
-        <v>68</v>
+      <c r="D41" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="13">
         <v>2</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="D42" s="44" t="s">
-        <v>69</v>
+      <c r="D42" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="44.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="13">
         <v>4</v>
       </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="44" t="s">
-        <v>62</v>
+      <c r="D43" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="21">
         <f>SUM(B45:B46)</f>
@@ -1517,7 +1526,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="25">
         <v>1</v>
@@ -1527,19 +1536,19 @@
     </row>
     <row r="46" spans="1:4" ht="15.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="25">
         <v>4</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="10">
         <f>SUM(B44,B25,B19,B13,B8)</f>
@@ -1556,18 +1565,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="19">
-        <f>B46+B45+B42+B41+B36+B35+B34+B30+B29+B26+B24+B23+B21+B20+B18+B17+B16+B14+B12+B11+B10+B9</f>
-        <v>85</v>
-      </c>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49">
-        <f>B46+B45+B43+B42+B41+B35+B34+B31+B22+B17+B15+B12</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,17 +1577,17 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -1593,7 +1595,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -1601,7 +1603,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1609,7 +1611,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
